--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value615.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value615.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.534751479932463</v>
+        <v>0.9507620930671692</v>
       </c>
       <c r="B1">
-        <v>3.609116555138786</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>4.824093829702351</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>1.443146311495867</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>0.8778841010746594</v>
+        <v>1.088253855705261</v>
       </c>
     </row>
   </sheetData>
